--- a/demo/data/测试数据.xlsx
+++ b/demo/data/测试数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12690" activeTab="1"/>
+    <workbookView windowWidth="24225" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>库位号</t>
   </si>
@@ -32,6 +32,9 @@
     <t>层</t>
   </si>
   <si>
+    <t>状态</t>
+  </si>
+  <si>
     <t>RA00110102</t>
   </si>
   <si>
@@ -47,6 +50,9 @@
     <t>A01</t>
   </si>
   <si>
+    <t>启用</t>
+  </si>
+  <si>
     <t>RA201212</t>
   </si>
   <si>
@@ -56,6 +62,9 @@
     <t>2</t>
   </si>
   <si>
+    <t>禁用</t>
+  </si>
+  <si>
     <t>1A00</t>
   </si>
   <si>
@@ -63,6 +72,21 @@
   </si>
   <si>
     <t>00</t>
+  </si>
+  <si>
+    <t>开启</t>
+  </si>
+  <si>
+    <t>RA1</t>
+  </si>
+  <si>
+    <t>停用</t>
+  </si>
+  <si>
+    <t>RA00110102000</t>
+  </si>
+  <si>
+    <t>02</t>
   </si>
   <si>
     <t>A001235</t>
@@ -76,12 +100,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,7 +120,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,23 +149,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,6 +184,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -162,8 +208,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,14 +255,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,44 +263,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,187 +278,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,26 +478,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,21 +546,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -539,6 +560,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -547,10 +583,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -559,143 +595,148 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1015,18 +1056,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="A1:E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="14.25" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1042,56 +1083,88 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="14.25" spans="1:5">
+    <row r="2" ht="14.25" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:6">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1103,15 +1176,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:5">
+    <row r="1" ht="14.25" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1127,56 +1203,68 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" ht="14.25" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
+    <row r="2" ht="14.25" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2">
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4">
         <v>1</v>
       </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" ht="14.25" spans="1:5">
+    <row r="3" ht="14.25" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="4" ht="14.25" spans="1:5">
+    <row r="4" ht="14.25" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/demo/data/测试数据.xlsx
+++ b/demo/data/测试数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12690"/>
+    <workbookView windowWidth="10755" windowHeight="8130" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t>库位号</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>02</t>
+  </si>
+  <si>
+    <t>RA001235</t>
   </si>
   <si>
     <t>A001235</t>
@@ -100,9 +103,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -125,21 +128,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -148,8 +136,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,53 +183,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,15 +251,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,25 +287,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,13 +419,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,139 +467,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,26 +481,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,6 +529,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -545,36 +578,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -583,10 +586,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,133 +598,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,7 +1061,7 @@
   <sheetPr/>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -1178,8 +1181,8 @@
   <sheetPr/>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1229,7 +1232,7 @@
     </row>
     <row r="3" ht="14.25" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
@@ -1249,11 +1252,9 @@
     </row>
     <row r="4" ht="14.25" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1261,7 +1262,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
